--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB59A5-245D-42C0-B7B1-672A144FB284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC82F2-1FF8-44FD-9349-AF0EC65181BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -196,7 +196,75 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[3]タイトルをクリックすると、質問詳細ページに遷移する</t>
+    <t>検索結果を一覧で表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[4]タイトルをクリックすると、質問詳細ページに遷移する</t>
     <rPh sb="16" eb="18">
       <t>シツモン</t>
     </rPh>
@@ -209,7 +277,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[４]検索結果が画面に入りきらない場合、スクロールバーでスクロールできる</t>
+    <t>質問タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[9]検索結果が画面に入りきらない場合、スクロールバーでスクロールできる</t>
     <rPh sb="3" eb="5">
       <t>ケンサク</t>
     </rPh>
@@ -228,19 +303,132 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検索結果を一覧で表示する</t>
+    <t>質問者の名前</t>
+    <rPh sb="0" eb="3">
+      <t>シツモンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問日時</t>
     <rPh sb="0" eb="2">
-      <t>ケンサク</t>
+      <t>シツモン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ケッカ</t>
+      <t>ニチジ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決/未解決</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問の内容</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクロールバー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solved</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questionnaire_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>scroll_bar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tr_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル内の画面型わからない</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>js_overflow</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクロールバーの画面型</t>
+    <rPh sb="8" eb="11">
+      <t>ガメンガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>done_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_contents</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -768,15 +956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
+      <xdr:colOff>138113</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -791,8 +979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="940594" y="1464469"/>
-          <a:ext cx="9465468" cy="5131593"/>
+          <a:off x="881063" y="1512094"/>
+          <a:ext cx="8548686" cy="5322093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,356 +1013,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011F7E8A-7971-4016-BC5D-00F199EDDE90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1857375" y="5464969"/>
-          <a:ext cx="7262812" cy="1357312"/>
-          <a:chOff x="1857375" y="2845594"/>
-          <a:chExt cx="7262812" cy="1166812"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E515B36-354F-4174-96D5-9D1F607D9268}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1857375" y="2845594"/>
-            <a:ext cx="7262812" cy="1166812"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F3C266-1494-48C4-A555-D87099D296F0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1952625" y="2905125"/>
-            <a:ext cx="1095375" cy="357187"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>タイトル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF7DF48-6873-4768-9C10-A3987416D1FC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2047875" y="3429000"/>
-            <a:ext cx="6881812" cy="500062"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問の内容を一部を表示</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F1E9A0-886D-4B09-90F0-08C3EDA8157C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3250406" y="2952750"/>
-            <a:ext cx="1238250" cy="273844"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問者の名前</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C487312-AB13-48CD-86E7-E385A91A5FF6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4679156" y="2952750"/>
-            <a:ext cx="1238250" cy="273844"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問日時</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0F3498-2179-481B-8E92-D68AA764866E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6203156" y="2952750"/>
-            <a:ext cx="1238250" cy="273844"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>解決</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>/</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>未解決</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1218,6 +1065,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>10.</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
             <a:t>フッター</a:t>
@@ -1345,6 +1196,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>ナビゲーション</a:t>
           </a:r>
@@ -1440,7 +1295,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1455,8 +1310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="2250280"/>
-          <a:ext cx="2143125" cy="428626"/>
+          <a:off x="873919" y="2250280"/>
+          <a:ext cx="1933575" cy="445295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,8 +1339,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２．検索結果</a:t>
+            <a:t>．検索結果</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1495,418 +1354,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25754DD0-AE46-4C99-B3CD-C408AA4937EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1857375" y="2845594"/>
-          <a:ext cx="7262812" cy="1166812"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DA73CD-E4A8-4468-93EC-7DC55933A718}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="2905125"/>
-          <a:ext cx="1345406" cy="357187"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>３．タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D089ED-936C-4695-8077-E9A873AD92B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="3429000"/>
-          <a:ext cx="6881812" cy="500062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問の内容を一部を表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>226219</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FF2EA4-EFB6-4564-B0B9-7469368FA380}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3369469" y="2952750"/>
-          <a:ext cx="1238250" cy="273844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問者の名前</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF31BDB7-554A-4C5E-8461-1565616C8AB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4810125" y="2952750"/>
-          <a:ext cx="1238250" cy="273844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問日時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6DD1EB-8E58-455F-B027-150C2C059CA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6203156" y="2952750"/>
-          <a:ext cx="1238250" cy="273844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>解決</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未解決</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>111918</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14">
+        <xdr:cNvPr id="14" name="グループ化 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A530E45-2F18-4E43-800D-A1A71DD0D19B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FC5484-88C9-475A-A7A5-AD8D6DB82FC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,18 +1377,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1857375" y="4214813"/>
-          <a:ext cx="7262812" cy="1166812"/>
-          <a:chOff x="1857375" y="2845594"/>
-          <a:chExt cx="7262812" cy="1166812"/>
+          <a:off x="1728787" y="2943225"/>
+          <a:ext cx="6555581" cy="1440656"/>
+          <a:chOff x="1700212" y="2952750"/>
+          <a:chExt cx="6555581" cy="1440656"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A418E7-0D4D-4A8F-BCBA-C43B2ABD8D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25754DD0-AE46-4C99-B3CD-C408AA4937EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1933,8 +1396,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1857375" y="2845594"/>
-            <a:ext cx="7262812" cy="1166812"/>
+            <a:off x="1700212" y="2952750"/>
+            <a:ext cx="6555581" cy="1440656"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1975,10 +1438,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA61CD20-759C-417C-B942-E210FCC5AB89}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DA73CD-E4A8-4468-93EC-7DC55933A718}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1986,8 +1449,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1952625" y="2905125"/>
-            <a:ext cx="1095375" cy="357187"/>
+            <a:off x="1876425" y="3009900"/>
+            <a:ext cx="6181725" cy="357187"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2015,18 +1478,22 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>タイトル</a:t>
+              <a:t>．タイトル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B77749-020B-40D2-8EBA-ED931A44D2CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D089ED-936C-4695-8077-E9A873AD92B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2034,8 +1501,60 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2047875" y="3429000"/>
-            <a:ext cx="6881812" cy="500062"/>
+            <a:off x="1864519" y="3810000"/>
+            <a:ext cx="6226968" cy="500062"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>8.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>質問の内容を一部を表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FF2EA4-EFB6-4564-B0B9-7469368FA380}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4264819" y="3438525"/>
+            <a:ext cx="1231106" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2064,17 +1583,17 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問の内容を一部を表示</a:t>
+              <a:t>５．質問者の名前</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1793F9B9-CD3E-489E-9EC9-E30F5E75BDD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF31BDB7-554A-4C5E-8461-1565616C8AB8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2082,8 +1601,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3250406" y="2952750"/>
-            <a:ext cx="1238250" cy="273844"/>
+            <a:off x="5622131" y="3438525"/>
+            <a:ext cx="1107281" cy="273844"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2112,17 +1631,17 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問者の名前</a:t>
+              <a:t>６．質問日時</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE6CDF0-CF2E-4B41-846B-4FAAC8904442}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6DD1EB-8E58-455F-B027-150C2C059CA7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2130,8 +1649,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4679156" y="2952750"/>
-            <a:ext cx="1238250" cy="273844"/>
+            <a:off x="6865142" y="3448050"/>
+            <a:ext cx="1173957" cy="247650"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2160,55 +1679,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問日時</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF745EC9-9E53-49D3-BF7C-BCB7D09D6C8D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6203156" y="2952750"/>
-            <a:ext cx="1238250" cy="273844"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>解決</a:t>
+              <a:t>７．解決</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2239,7 +1710,7 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2284,12 +1755,380 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>４．スクロールバー</a:t>
+            <a:t>スクロールバー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121443</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86122FE-8159-4F53-8D7F-BAF2FFD7E935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1738312" y="4410075"/>
+          <a:ext cx="6555581" cy="1440656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92869</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="グループ化 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CF4167-C20A-4B2C-BD77-57AAD8EEA6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1826419" y="4495800"/>
+          <a:ext cx="6226968" cy="1300162"/>
+          <a:chOff x="2293144" y="3505200"/>
+          <a:chExt cx="6226968" cy="1300162"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CD9365-3D9C-448B-BE50-5EF69FEA2418}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2305050" y="3505200"/>
+            <a:ext cx="6181725" cy="357187"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>．タイトル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDE31E0-A839-46FA-A155-23EBAE923711}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2293144" y="4305300"/>
+            <a:ext cx="6226968" cy="500062"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>8.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>質問の内容を一部を表示</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="正方形/長方形 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9129FDEB-FD31-416F-A384-4EB5536AF02F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4693444" y="3933825"/>
+            <a:ext cx="1231106" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>５．質問者の名前</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95F7958-075E-4382-B715-89D87530C461}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6050756" y="3933825"/>
+            <a:ext cx="1107281" cy="273844"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>６．質問日時</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02370B42-BB54-4023-B054-C75E98496775}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7293767" y="3943350"/>
+            <a:ext cx="1173957" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>７．解決</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>未解決</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2616,15 +2455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AQ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3334,11 +3173,11 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
@@ -3376,11 +3215,11 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
@@ -3460,11 +3299,11 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
@@ -3502,11 +3341,11 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -4163,8 +4002,8 @@
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -4204,258 +4043,256 @@
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="13"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="12"/>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="13"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="7"/>
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="7"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="13"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="5"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="8"/>
-      <c r="AM44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="5"/>
       <c r="AN44" s="7"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4463,9 +4300,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -4505,88 +4340,88 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
-      <c r="AG47" s="9"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="9"/>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
       <c r="AM47" s="7"/>
       <c r="AN47" s="7"/>
     </row>
@@ -4595,7 +4430,9 @@
       <c r="B48" s="6"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -4637,7 +4474,9 @@
       <c r="B49" s="6"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -4677,8 +4516,8 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -4719,8 +4558,8 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -4898,11 +4737,11 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
@@ -4940,11 +4779,11 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
@@ -5024,11 +4863,11 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
@@ -5066,11 +4905,11 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
@@ -5685,8 +5524,8 @@
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -5726,351 +5565,351 @@
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
-      <c r="AF75" s="12"/>
-      <c r="AG75" s="12"/>
-      <c r="AH75" s="12"/>
-      <c r="AI75" s="12"/>
-      <c r="AJ75" s="12"/>
-      <c r="AK75" s="12"/>
-      <c r="AL75" s="12"/>
-      <c r="AM75" s="13"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="9"/>
+      <c r="AM75" s="7"/>
       <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="12"/>
-      <c r="AC76" s="12"/>
-      <c r="AD76" s="12"/>
-      <c r="AE76" s="12"/>
-      <c r="AF76" s="12"/>
-      <c r="AG76" s="12"/>
-      <c r="AH76" s="12"/>
-      <c r="AI76" s="12"/>
-      <c r="AJ76" s="12"/>
-      <c r="AK76" s="12"/>
-      <c r="AL76" s="12"/>
-      <c r="AM76" s="12"/>
-      <c r="AN76" s="13"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-      <c r="AI77" s="4"/>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="4"/>
-      <c r="AL77" s="4"/>
-      <c r="AM77" s="4"/>
-      <c r="AN77" s="5"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="7"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6"/>
-      <c r="B78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-      <c r="AI78" s="4"/>
-      <c r="AJ78" s="4"/>
-      <c r="AK78" s="4"/>
-      <c r="AL78" s="4"/>
-      <c r="AM78" s="5"/>
-      <c r="AN78" s="7"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="13"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="8"/>
-      <c r="AC79" s="8"/>
-      <c r="AD79" s="8"/>
-      <c r="AE79" s="8"/>
-      <c r="AF79" s="8"/>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="8"/>
-      <c r="AI79" s="8"/>
-      <c r="AJ79" s="8"/>
-      <c r="AK79" s="8"/>
-      <c r="AL79" s="8"/>
-      <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
+      <c r="AM79" s="4"/>
+      <c r="AN79" s="5"/>
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="7"/>
+    </row>
+    <row r="81" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="8"/>
+      <c r="AH81" s="8"/>
+      <c r="AI81" s="8"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="8"/>
+      <c r="AL81" s="8"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="7"/>
+    </row>
+    <row r="82" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16" t="s">
+      <c r="C82" s="15"/>
+      <c r="D82" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M80" s="17"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="19"/>
-      <c r="S80" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T80" s="19"/>
-      <c r="U80" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V80" s="19"/>
-      <c r="W80" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-      <c r="Z80" s="19"/>
-      <c r="AA80" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB80" s="17"/>
-      <c r="AC80" s="19"/>
-      <c r="AD80" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE80" s="17"/>
-      <c r="AF80" s="17"/>
-      <c r="AG80" s="17"/>
-      <c r="AH80" s="17"/>
-      <c r="AI80" s="17"/>
-      <c r="AJ80" s="17"/>
-      <c r="AK80" s="17"/>
-      <c r="AL80" s="17"/>
-      <c r="AM80" s="20"/>
-      <c r="AN80" s="7"/>
-    </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
-      <c r="AB81" s="17"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="16"/>
-      <c r="AE81" s="17"/>
-      <c r="AF81" s="17"/>
-      <c r="AG81" s="17"/>
-      <c r="AH81" s="17"/>
-      <c r="AI81" s="17"/>
-      <c r="AJ81" s="17"/>
-      <c r="AK81" s="17"/>
-      <c r="AL81" s="17"/>
-      <c r="AM81" s="20"/>
-      <c r="AN81" s="7"/>
-    </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
-      <c r="S82" s="16"/>
+      <c r="S82" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T82" s="19"/>
-      <c r="U82" s="16"/>
+      <c r="U82" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
-      <c r="AD82" s="16"/>
+      <c r="AD82" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE82" s="17"/>
       <c r="AF82" s="17"/>
       <c r="AG82" s="17"/>
@@ -6082,19 +5921,27 @@
       <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>1</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -6124,22 +5971,32 @@
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>2</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -6166,22 +6023,32 @@
       <c r="AM84" s="20"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>3</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -6208,34 +6075,52 @@
       <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="15">
+        <v>4</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
-      <c r="S86" s="16"/>
+      <c r="S86" s="16">
+        <v>1</v>
+      </c>
       <c r="T86" s="19"/>
-      <c r="U86" s="16"/>
+      <c r="U86" s="16">
+        <v>80</v>
+      </c>
       <c r="V86" s="19"/>
-      <c r="W86" s="16"/>
+      <c r="W86" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
-      <c r="AA86" s="16"/>
+      <c r="AA86" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16"/>
@@ -6250,34 +6135,50 @@
       <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>5</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16"/>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="16"/>
+      <c r="O87" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
-      <c r="S87" s="16"/>
+      <c r="S87" s="16">
+        <v>1</v>
+      </c>
       <c r="T87" s="19"/>
-      <c r="U87" s="16"/>
+      <c r="U87" s="16">
+        <v>30</v>
+      </c>
       <c r="V87" s="19"/>
-      <c r="W87" s="16"/>
+      <c r="W87" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
-      <c r="AA87" s="16"/>
+      <c r="AA87" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16"/>
@@ -6292,22 +6193,30 @@
       <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="15">
+        <v>6</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16"/>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
@@ -6315,11 +6224,15 @@
       <c r="T88" s="19"/>
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
-      <c r="W88" s="16"/>
+      <c r="W88" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16"/>
+      <c r="AA88" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="16"/>
@@ -6334,22 +6247,30 @@
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="15">
+        <v>7</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16"/>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16"/>
+      <c r="O89" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
@@ -6357,11 +6278,15 @@
       <c r="T89" s="19"/>
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="16"/>
+      <c r="W89" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16"/>
+      <c r="AA89" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -6376,34 +6301,50 @@
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>8</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16"/>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
-      <c r="S90" s="16"/>
+      <c r="S90" s="16">
+        <v>1</v>
+      </c>
       <c r="T90" s="19"/>
-      <c r="U90" s="16"/>
+      <c r="U90" s="16">
+        <v>255</v>
+      </c>
       <c r="V90" s="19"/>
-      <c r="W90" s="16"/>
+      <c r="W90" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="19"/>
-      <c r="AA90" s="16"/>
+      <c r="AA90" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="16"/>
@@ -6417,24 +6358,35 @@
       <c r="AL90" s="17"/>
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
-    </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ90" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="17"/>
+      <c r="C91" s="15">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="17"/>
+      <c r="L91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="17"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
       <c r="S91" s="16"/>
@@ -6459,23 +6411,36 @@
       <c r="AL91" s="17"/>
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
-    </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ91" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="15">
+        <v>10</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
-      <c r="O92" s="16"/>
+      <c r="O92" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="19"/>
@@ -6501,8 +6466,11 @@
       <c r="AL92" s="17"/>
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
-    </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AQ92" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -6544,7 +6512,7 @@
       <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -6586,7 +6554,7 @@
       <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -6628,7 +6596,7 @@
       <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -7259,46 +7227,88 @@
       <c r="AN110" s="7"/>
     </row>
     <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
-      <c r="S111" s="12"/>
-      <c r="T111" s="12"/>
-      <c r="U111" s="12"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="12"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="12"/>
-      <c r="Z111" s="12"/>
-      <c r="AA111" s="12"/>
-      <c r="AB111" s="12"/>
-      <c r="AC111" s="12"/>
-      <c r="AD111" s="12"/>
-      <c r="AE111" s="12"/>
-      <c r="AF111" s="12"/>
-      <c r="AG111" s="12"/>
-      <c r="AH111" s="12"/>
-      <c r="AI111" s="12"/>
-      <c r="AJ111" s="12"/>
-      <c r="AK111" s="12"/>
-      <c r="AL111" s="12"/>
-      <c r="AM111" s="12"/>
-      <c r="AN111" s="13"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="20"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="12"/>
+      <c r="AH112" s="12"/>
+      <c r="AI112" s="12"/>
+      <c r="AJ112" s="12"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="12"/>
+      <c r="AM112" s="12"/>
+      <c r="AN112" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC82F2-1FF8-44FD-9349-AF0EC65181BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5157E5E-006A-4BC8-9A9F-0D30353BFC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -277,13 +277,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>質問タイトル</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[9]検索結果が画面に入りきらない場合、スクロールバーでスクロールできる</t>
     <rPh sb="3" eb="5">
       <t>ケンサク</t>
@@ -303,67 +296,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>質問者の名前</t>
-    <rPh sb="0" eb="3">
-      <t>シツモンシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問日時</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>解決/未解決</t>
-    <rPh sb="0" eb="2">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミカイケツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問の内容</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>スクロールバー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>question_title</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>question_date</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>solved</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>question_contents</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>questionnaire_name</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -371,64 +304,68 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>tr_title</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テーブル内の画面型わからない</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
+    <t>質問内容の一部表示だが、最大文字数の500をmaxに入れていいのか</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
     </rPh>
-    <rPh sb="6" eb="9">
-      <t>ガメンガタ</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>js_overflow</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スクロールバーの画面型</t>
-    <rPh sb="8" eb="11">
-      <t>ガメンガタ</t>
+    <t>検索結果表</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>date</t>
+    <t>result_table</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>d_questions</t>
+    <t>table</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>m_users</t>
+    <t>d_questions, m_users</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>q_title</t>
+    <t>q_title, user_name, q_date, done_tag, q_contents</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_name</t>
+    <t>疑問点</t>
+    <rPh sb="0" eb="3">
+      <t>ギモンテン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>q_date</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>done_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q_contents</t>
+    <t>css_overflow</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1067,7 +1004,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
-            <a:t>10.</a:t>
+            <a:t>6.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
@@ -1378,7 +1315,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1728787" y="2943225"/>
-          <a:ext cx="6555581" cy="1440656"/>
+          <a:ext cx="6803231" cy="1440656"/>
           <a:chOff x="1700212" y="2952750"/>
           <a:chExt cx="6555581" cy="1440656"/>
         </a:xfrm>
@@ -1478,12 +1415,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>．タイトル</a:t>
+              <a:t>タイトル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1529,10 +1462,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>8.</a:t>
-            </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>質問の内容を一部を表示</a:t>
@@ -1583,7 +1512,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>５．質問者の名前</a:t>
+              <a:t>質問者の名前</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1631,7 +1560,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>６．質問日時</a:t>
+              <a:t>質問日時</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1679,7 +1608,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>７．解決</a:t>
+              <a:t>解決</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1756,7 +1685,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>9.</a:t>
+            <a:t>5.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1862,7 +1791,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1826419" y="4495800"/>
-          <a:ext cx="6226968" cy="1300162"/>
+          <a:ext cx="6474618" cy="1300162"/>
           <a:chOff x="2293144" y="3505200"/>
           <a:chExt cx="6226968" cy="1300162"/>
         </a:xfrm>
@@ -1909,12 +1838,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>．タイトル</a:t>
+              <a:t>タイトル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1960,10 +1885,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>8.</a:t>
-            </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>質問の内容を一部を表示</a:t>
@@ -2014,7 +1935,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>５．質問者の名前</a:t>
+              <a:t>質問者の名前</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2062,7 +1983,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>６．質問日時</a:t>
+              <a:t>質問日時</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2110,7 +2031,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>７．解決</a:t>
+              <a:t>解決</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2129,6 +2050,85 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EE3A95-097F-4CBF-8F26-30B5C9E4A25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="2819400"/>
+          <a:ext cx="1171575" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>検索結果表</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2455,7 +2455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ112"/>
+  <dimension ref="A1:AQ108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:J3"/>
@@ -2463,7 +2463,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="25" width="3.6640625" style="1"/>
+    <col min="26" max="26" width="7.21875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4475,7 +4477,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -6082,19 +6084,19 @@
         <v>4</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -6104,22 +6106,18 @@
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
-      <c r="S86" s="16">
-        <v>1</v>
-      </c>
+      <c r="S86" s="16"/>
       <c r="T86" s="19"/>
-      <c r="U86" s="16">
-        <v>80</v>
-      </c>
+      <c r="U86" s="16"/>
       <c r="V86" s="19"/>
       <c r="W86" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -6141,44 +6139,36 @@
       <c r="C87" s="15">
         <v>5</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="16" t="s">
+      <c r="D87" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="17"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="17"/>
+      <c r="L87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P87" s="17"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
-      <c r="S87" s="16">
-        <v>1</v>
-      </c>
+      <c r="S87" s="16"/>
       <c r="T87" s="19"/>
-      <c r="U87" s="16">
-        <v>30</v>
-      </c>
+      <c r="U87" s="16"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="W87" s="16"/>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
-      <c r="AA87" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA87" s="16"/>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16"/>
@@ -6200,22 +6190,24 @@
         <v>6</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
       <c r="O88" s="16" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
@@ -6224,15 +6216,11 @@
       <c r="T88" s="19"/>
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
-      <c r="W88" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="W88" s="16"/>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA88" s="16"/>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="16"/>
@@ -6246,31 +6234,26 @@
       <c r="AL88" s="17"/>
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
+      <c r="AQ88" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="89" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15">
-        <v>7</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="H89" s="16"/>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16"/>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="O89" s="16"/>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
@@ -6278,15 +6261,11 @@
       <c r="T89" s="19"/>
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="W89" s="16"/>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="AA89" s="16"/>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -6300,51 +6279,38 @@
       <c r="AL89" s="17"/>
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
+      <c r="AQ89" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="90" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15">
-        <v>8</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="H90" s="16"/>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16"/>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="O90" s="16"/>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
-      <c r="S90" s="16">
-        <v>1</v>
-      </c>
+      <c r="S90" s="16"/>
       <c r="T90" s="19"/>
-      <c r="U90" s="16">
-        <v>255</v>
-      </c>
+      <c r="U90" s="16"/>
       <c r="V90" s="19"/>
-      <c r="W90" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="W90" s="16"/>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="19"/>
-      <c r="AA90" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA90" s="16"/>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="16"/>
@@ -6358,35 +6324,24 @@
       <c r="AL90" s="17"/>
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
-      <c r="AQ90" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="91" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M91" s="2"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="17"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
       <c r="S91" s="16"/>
@@ -6411,36 +6366,23 @@
       <c r="AL91" s="17"/>
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
-      <c r="AQ91" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="92" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15">
-        <v>10</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="H92" s="16"/>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="L92" s="16"/>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
-      <c r="O92" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="O92" s="16"/>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="19"/>
@@ -6466,9 +6408,6 @@
       <c r="AL92" s="17"/>
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
-      <c r="AQ92" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="93" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
@@ -7101,214 +7040,46 @@
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="6"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="16"/>
-      <c r="T108" s="19"/>
-      <c r="U108" s="16"/>
-      <c r="V108" s="19"/>
-      <c r="W108" s="16"/>
-      <c r="X108" s="17"/>
-      <c r="Y108" s="17"/>
-      <c r="Z108" s="19"/>
-      <c r="AA108" s="16"/>
-      <c r="AB108" s="17"/>
-      <c r="AC108" s="19"/>
-      <c r="AD108" s="16"/>
-      <c r="AE108" s="17"/>
-      <c r="AF108" s="17"/>
-      <c r="AG108" s="17"/>
-      <c r="AH108" s="17"/>
-      <c r="AI108" s="17"/>
-      <c r="AJ108" s="17"/>
-      <c r="AK108" s="17"/>
-      <c r="AL108" s="17"/>
-      <c r="AM108" s="20"/>
-      <c r="AN108" s="7"/>
-    </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="6"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="16"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="16"/>
-      <c r="T109" s="19"/>
-      <c r="U109" s="16"/>
-      <c r="V109" s="19"/>
-      <c r="W109" s="16"/>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="19"/>
-      <c r="AA109" s="16"/>
-      <c r="AB109" s="17"/>
-      <c r="AC109" s="19"/>
-      <c r="AD109" s="16"/>
-      <c r="AE109" s="17"/>
-      <c r="AF109" s="17"/>
-      <c r="AG109" s="17"/>
-      <c r="AH109" s="17"/>
-      <c r="AI109" s="17"/>
-      <c r="AJ109" s="17"/>
-      <c r="AK109" s="17"/>
-      <c r="AL109" s="17"/>
-      <c r="AM109" s="20"/>
-      <c r="AN109" s="7"/>
-    </row>
-    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="6"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="16"/>
-      <c r="T110" s="19"/>
-      <c r="U110" s="16"/>
-      <c r="V110" s="19"/>
-      <c r="W110" s="16"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="19"/>
-      <c r="AA110" s="16"/>
-      <c r="AB110" s="17"/>
-      <c r="AC110" s="19"/>
-      <c r="AD110" s="16"/>
-      <c r="AE110" s="17"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="17"/>
-      <c r="AH110" s="17"/>
-      <c r="AI110" s="17"/>
-      <c r="AJ110" s="17"/>
-      <c r="AK110" s="17"/>
-      <c r="AL110" s="17"/>
-      <c r="AM110" s="20"/>
-      <c r="AN110" s="7"/>
-    </row>
-    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="6"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="16"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="16"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="16"/>
-      <c r="AB111" s="17"/>
-      <c r="AC111" s="19"/>
-      <c r="AD111" s="16"/>
-      <c r="AE111" s="17"/>
-      <c r="AF111" s="17"/>
-      <c r="AG111" s="17"/>
-      <c r="AH111" s="17"/>
-      <c r="AI111" s="17"/>
-      <c r="AJ111" s="17"/>
-      <c r="AK111" s="17"/>
-      <c r="AL111" s="17"/>
-      <c r="AM111" s="20"/>
-      <c r="AN111" s="7"/>
-    </row>
-    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
-      <c r="S112" s="12"/>
-      <c r="T112" s="12"/>
-      <c r="U112" s="12"/>
-      <c r="V112" s="12"/>
-      <c r="W112" s="12"/>
-      <c r="X112" s="12"/>
-      <c r="Y112" s="12"/>
-      <c r="Z112" s="12"/>
-      <c r="AA112" s="12"/>
-      <c r="AB112" s="12"/>
-      <c r="AC112" s="12"/>
-      <c r="AD112" s="12"/>
-      <c r="AE112" s="12"/>
-      <c r="AF112" s="12"/>
-      <c r="AG112" s="12"/>
-      <c r="AH112" s="12"/>
-      <c r="AI112" s="12"/>
-      <c r="AJ112" s="12"/>
-      <c r="AK112" s="12"/>
-      <c r="AL112" s="12"/>
-      <c r="AM112" s="12"/>
-      <c r="AN112" s="13"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+      <c r="AM108" s="12"/>
+      <c r="AN108" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5157E5E-006A-4BC8-9A9F-0D30353BFC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24631CD-585A-4387-929F-FC633D4374F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1148,13 +1148,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -1171,8 +1171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="1559718"/>
-          <a:ext cx="2286000" cy="559594"/>
+          <a:off x="4111624" y="1593585"/>
+          <a:ext cx="2365375" cy="572294"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1314,8 +1314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1728787" y="2943225"/>
-          <a:ext cx="6803231" cy="1440656"/>
+          <a:off x="1766887" y="2943225"/>
+          <a:ext cx="6968331" cy="1440656"/>
           <a:chOff x="1700212" y="2952750"/>
           <a:chExt cx="6555581" cy="1440656"/>
         </a:xfrm>
@@ -1790,8 +1790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1826419" y="4495800"/>
-          <a:ext cx="6474618" cy="1300162"/>
+          <a:off x="1870869" y="4495800"/>
+          <a:ext cx="6627018" cy="1300162"/>
           <a:chOff x="2293144" y="3505200"/>
           <a:chExt cx="6226968" cy="1300162"/>
         </a:xfrm>
@@ -2457,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -5996,9 +5996,7 @@
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="O84" s="16"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -6048,9 +6046,7 @@
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="O85" s="16"/>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -6206,9 +6202,7 @@
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="O88" s="16"/>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>

--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24631CD-585A-4387-929F-FC633D4374F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BB891-EF4C-4A09-9DA6-ED3075E01DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -304,31 +304,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>質問内容の一部表示だが、最大文字数の500をmaxに入れていいのか</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>検索結果表</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -350,22 +325,151 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>d_questions, m_users</t>
+    <t>css_overflow</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>q_title, user_name, q_date, done_tag, q_contents</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>疑問点</t>
-    <rPh sb="0" eb="3">
-      <t>ギモンテン</t>
+    <t>検索結果ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>css_overflow</t>
+    <t>御代田里奈</t>
+    <rPh sb="0" eb="5">
+      <t>ミヨタリナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問者の名前</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問日時</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決/未解決ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>questionnaire_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solution_label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tr1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tr2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tr3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+  </si>
+  <si>
+    <t>d_questions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>done_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_contents</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -741,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -794,6 +898,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,6 +966,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,8 +1116,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>１１</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
-            <a:t>6.</a:t>
+            <a:t>.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
@@ -1281,7 +1398,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>．検索結果</a:t>
+            <a:t>．ページのタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1415,8 +1532,12 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>タイトル</a:t>
+              <a:t>．タイトル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1463,8 +1584,12 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問の内容を一部を表示</a:t>
+              <a:t>．質問の内容を一部を表示</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1511,8 +1636,12 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>6</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問者の名前</a:t>
+              <a:t>．質問者の名前</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1559,8 +1688,12 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>7</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>質問日時</a:t>
+              <a:t>．質問日時</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1607,8 +1740,12 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>8</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>解決</a:t>
+              <a:t>．解決</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1632,15 +1769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
+      <xdr:colOff>65087</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>124619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>5556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1655,8 +1792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9929812" y="2416969"/>
-          <a:ext cx="250032" cy="3690937"/>
+          <a:off x="9450387" y="2410619"/>
+          <a:ext cx="230188" cy="4262437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,8 +1821,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5.</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2131,6 +2276,86 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="吹き出し: 円形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3858E492-ADF0-4501-BAB4-CEFA23F1D237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="3162300"/>
+          <a:ext cx="1778000" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50396"/>
+            <a:gd name="adj2" fmla="val 50830"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問内容は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>先頭から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>100</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字を表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2455,9 +2680,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ108"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -2469,146 +2694,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="X2" s="43"/>
+      <c r="Y2" s="44">
+        <v>44356</v>
+      </c>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="47"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="39"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5819,7 +6052,7 @@
       <c r="AM80" s="5"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
@@ -5861,7 +6094,7 @@
       <c r="AM81" s="7"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14" t="s">
         <v>11</v>
@@ -5923,7 +6156,7 @@
       <c r="AM82" s="20"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
@@ -5973,7 +6206,7 @@
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">
@@ -6023,7 +6256,7 @@
       <c r="AM84" s="20"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15">
@@ -6073,26 +6306,26 @@
       <c r="AM85" s="20"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15">
         <v>4</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -6106,15 +6339,11 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="W86" s="16"/>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
-      <c r="AA86" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="AA86" s="16"/>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16"/>
@@ -6129,42 +6358,48 @@
       <c r="AM86" s="20"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15">
         <v>5</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="D87" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M87" s="2"/>
+      <c r="L87" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" s="17"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
+      <c r="O87" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
       <c r="S87" s="16"/>
       <c r="T87" s="19"/>
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="16"/>
+      <c r="W87" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
-      <c r="AA87" s="16"/>
+      <c r="AA87" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16"/>
@@ -6179,30 +6414,32 @@
       <c r="AM87" s="20"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15">
         <v>6</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16" t="s">
-        <v>34</v>
+      <c r="H88" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16" t="s">
-        <v>35</v>
+      <c r="L88" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
@@ -6210,11 +6447,15 @@
       <c r="T88" s="19"/>
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
-      <c r="W88" s="16"/>
+      <c r="W88" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16"/>
+      <c r="AA88" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="16"/>
@@ -6228,26 +6469,33 @@
       <c r="AL88" s="17"/>
       <c r="AM88" s="20"/>
       <c r="AN88" s="7"/>
-      <c r="AQ88" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="15">
+        <v>7</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16"/>
+      <c r="O89" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
@@ -6255,11 +6503,15 @@
       <c r="T89" s="19"/>
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="16"/>
+      <c r="W89" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16"/>
+      <c r="AA89" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -6273,26 +6525,33 @@
       <c r="AL89" s="17"/>
       <c r="AM89" s="20"/>
       <c r="AN89" s="7"/>
-      <c r="AQ89" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>8</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
@@ -6300,11 +6559,15 @@
       <c r="T90" s="19"/>
       <c r="U90" s="16"/>
       <c r="V90" s="19"/>
-      <c r="W90" s="16"/>
+      <c r="W90" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="19"/>
-      <c r="AA90" s="16"/>
+      <c r="AA90" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="16"/>
@@ -6319,22 +6582,32 @@
       <c r="AM90" s="20"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="15">
+        <v>9</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="16"/>
+      <c r="O91" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
@@ -6342,11 +6615,15 @@
       <c r="T91" s="19"/>
       <c r="U91" s="16"/>
       <c r="V91" s="19"/>
-      <c r="W91" s="16"/>
+      <c r="W91" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="X91" s="17"/>
       <c r="Y91" s="17"/>
       <c r="Z91" s="19"/>
-      <c r="AA91" s="16"/>
+      <c r="AA91" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="AB91" s="17"/>
       <c r="AC91" s="19"/>
       <c r="AD91" s="16"/>
@@ -6361,25 +6638,33 @@
       <c r="AM91" s="20"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="19"/>
+      <c r="C92" s="15">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="21"/>
       <c r="S92" s="16"/>
       <c r="T92" s="19"/>
       <c r="U92" s="16"/>
@@ -6403,19 +6688,27 @@
       <c r="AM92" s="20"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="15">
+        <v>11</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16"/>
@@ -6445,7 +6738,7 @@
       <c r="AM93" s="20"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -6487,7 +6780,7 @@
       <c r="AM94" s="20"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -6529,7 +6822,7 @@
       <c r="AM95" s="20"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -7034,46 +7327,256 @@
       <c r="AN107" s="7"/>
     </row>
     <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-      <c r="T108" s="12"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-      <c r="Z108" s="12"/>
-      <c r="AA108" s="12"/>
-      <c r="AB108" s="12"/>
-      <c r="AC108" s="12"/>
-      <c r="AD108" s="12"/>
-      <c r="AE108" s="12"/>
-      <c r="AF108" s="12"/>
-      <c r="AG108" s="12"/>
-      <c r="AH108" s="12"/>
-      <c r="AI108" s="12"/>
-      <c r="AJ108" s="12"/>
-      <c r="AK108" s="12"/>
-      <c r="AL108" s="12"/>
-      <c r="AM108" s="12"/>
-      <c r="AN108" s="13"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="19"/>
+      <c r="AA108" s="16"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="19"/>
+      <c r="AD108" s="16"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+      <c r="AL108" s="17"/>
+      <c r="AM108" s="20"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="16"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="16"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="20"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="20"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="16"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="16"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="16"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+      <c r="AL112" s="17"/>
+      <c r="AM112" s="20"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BB891-EF4C-4A09-9DA6-ED3075E01DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04703AA5-DCF5-45E8-B61C-C5FE114D49BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1431,8 +1431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1766887" y="2943225"/>
-          <a:ext cx="6968331" cy="1440656"/>
+          <a:off x="1909762" y="2943225"/>
+          <a:ext cx="7647781" cy="1440656"/>
           <a:chOff x="1700212" y="2952750"/>
           <a:chExt cx="6555581" cy="1440656"/>
         </a:xfrm>
@@ -1935,8 +1935,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1870869" y="4495800"/>
-          <a:ext cx="6627018" cy="1300162"/>
+          <a:off x="2037557" y="4495800"/>
+          <a:ext cx="7258843" cy="1300162"/>
           <a:chOff x="2293144" y="3505200"/>
           <a:chExt cx="6226968" cy="1300162"/>
         </a:xfrm>
@@ -2682,15 +2682,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="3.6640625" style="1"/>
-    <col min="26" max="26" width="7.21875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="25" width="3.625" style="1"/>
+    <col min="26" max="26" width="7.25" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">

--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\backup\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04703AA5-DCF5-45E8-B61C-C5FE114D49BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43FA46-00D9-453A-A69F-F5429D32A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -470,6 +470,10 @@
   </si>
   <si>
     <t>q_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1431,8 +1435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1909762" y="2943225"/>
-          <a:ext cx="7647781" cy="1440656"/>
+          <a:off x="1900237" y="2943225"/>
+          <a:ext cx="7603331" cy="1440656"/>
           <a:chOff x="1700212" y="2952750"/>
           <a:chExt cx="6555581" cy="1440656"/>
         </a:xfrm>
@@ -1935,8 +1939,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2037557" y="4495800"/>
-          <a:ext cx="7258843" cy="1300162"/>
+          <a:off x="2026444" y="4495800"/>
+          <a:ext cx="7217568" cy="1300162"/>
           <a:chOff x="2293144" y="3505200"/>
           <a:chExt cx="6226968" cy="1300162"/>
         </a:xfrm>
@@ -2682,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="X97" sqref="X97"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V94" sqref="V94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6387,9 +6391,13 @@
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
-      <c r="S87" s="16"/>
+      <c r="S87" s="16">
+        <v>1</v>
+      </c>
       <c r="T87" s="19"/>
-      <c r="U87" s="16"/>
+      <c r="U87" s="16">
+        <v>80</v>
+      </c>
       <c r="V87" s="19"/>
       <c r="W87" s="16" t="s">
         <v>63</v>
@@ -6443,9 +6451,13 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
-      <c r="S88" s="16"/>
+      <c r="S88" s="16">
+        <v>1</v>
+      </c>
       <c r="T88" s="19"/>
-      <c r="U88" s="16"/>
+      <c r="U88" s="16">
+        <v>30</v>
+      </c>
       <c r="V88" s="19"/>
       <c r="W88" s="16" t="s">
         <v>61</v>
@@ -6550,14 +6562,18 @@
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="17" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
-      <c r="S90" s="16"/>
+      <c r="S90" s="16">
+        <v>0</v>
+      </c>
       <c r="T90" s="19"/>
-      <c r="U90" s="16"/>
+      <c r="U90" s="16">
+        <v>1</v>
+      </c>
       <c r="V90" s="19"/>
       <c r="W90" s="16" t="s">
         <v>63</v>
@@ -6611,9 +6627,13 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
-      <c r="S91" s="16"/>
+      <c r="S91" s="16">
+        <v>1</v>
+      </c>
       <c r="T91" s="19"/>
-      <c r="U91" s="16"/>
+      <c r="U91" s="16">
+        <v>500</v>
+      </c>
       <c r="V91" s="19"/>
       <c r="W91" s="16" t="s">
         <v>62</v>

--- a/外部設計関連/外部設計書_検索結果.xlsx
+++ b/外部設計関連/外部設計書_検索結果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\backup\D-4\外部設計関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43FA46-00D9-453A-A69F-F5429D32A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98E7F3-028B-48D3-8FA9-4702AC648346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1268,82 +1268,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDEBB6A-E706-4E9D-961C-A113A3F335D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4111624" y="1593585"/>
-          <a:ext cx="2365375" cy="572294"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>１．ロゴマーク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130969</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2360,6 +2284,309 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>244476</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A106691-6902-4688-B932-5488783CE06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3405188" y="1924049"/>
+          <a:ext cx="6230938" cy="297658"/>
+          <a:chOff x="3698875" y="1952624"/>
+          <a:chExt cx="6230938" cy="297658"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE2B643-CCB5-45FD-B0EC-B39A3862F907}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5472905" y="1952624"/>
+            <a:ext cx="1266032" cy="297657"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>質問投稿ページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368C87EA-FF0C-4FAE-B2E7-EE469E2FEA94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489033" y="1964532"/>
+            <a:ext cx="992187" cy="273842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>マイページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3360F595-3E1C-49E5-AAC1-E185BF54E925}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9132096" y="1988345"/>
+            <a:ext cx="797717" cy="261937"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログアウト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1583554-990F-4E8B-9EC2-A72D1321D1AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3698875" y="1988344"/>
+            <a:ext cx="1301750" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>トップページ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>336549</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDEBB6A-E706-4E9D-961C-A113A3F335D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676774" y="1388268"/>
+          <a:ext cx="2565400" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１．ロゴマーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2686,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V94" sqref="V94"/>
     </sheetView>
   </sheetViews>
